--- a/umit_files_xlsx/umit_obs.xlsx
+++ b/umit_files_xlsx/umit_obs.xlsx
@@ -2850,8 +2850,8 @@
         <v>727</v>
       </c>
       <c r="Q28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Банковские услуги, предоставляемые гражданам: кредит, обмен валют, электронные деньги, депозит, денежный перевод, платежная карта")</f>
-        <v>Банковские услуги, предоставляемые гражданам: кредит, обмен валют, электронные деньги, депозит, денежный перевод, платежная карта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Банковские услуги, предоставляемые гражданам: кредит, обмен валют, электронные деньги, депозит, денежный перевод, платежная карта, снятие и внесение наличных денег")</f>
+        <v>Банковские услуги, предоставляемые гражданам: кредит, обмен валют, электронные деньги, депозит, денежный перевод, платежная карта, снятие и внесение наличных денег</v>
       </c>
       <c r="R28" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),827.0)</f>
@@ -3126,12 +3126,12 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Значение ЗОЖ для личности и общества")</f>
-        <v>Значение ЗОЖ для личности и общества</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие законотворчества")</f>
+        <v>Понятие законотворчества</v>
       </c>
       <c r="B32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
-        <v>31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Первичная и вторичная социализация")</f>
@@ -3208,12 +3208,12 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вред алкоголя и наркотиков")</f>
-        <v>Вред алкоголя и наркотиков</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этапы законотворчества в РФ")</f>
+        <v>Этапы законотворчества в РФ</v>
       </c>
       <c r="B33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этапы социализации")</f>
@@ -3290,12 +3290,12 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие законотворчества")</f>
-        <v>Понятие законотворчества</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Права и обязанности учащихся в РФ")</f>
+        <v>Права и обязанности учащихся в РФ</v>
       </c>
       <c r="B34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социализация и взросление")</f>
@@ -3372,12 +3372,12 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Этапы законотворчества в РФ")</f>
-        <v>Этапы законотворчества в РФ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и виды социальных институтов")</f>
+        <v>Понятие и виды социальных институтов</v>
       </c>
       <c r="B35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Агенты, институты и факторы социализации")</f>
@@ -3454,12 +3454,12 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Права и обязанности учащихся в РФ")</f>
-        <v>Права и обязанности учащихся в РФ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции социальных институтов")</f>
+        <v>Функции социальных институтов</v>
       </c>
       <c r="B36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности подросткового возраста")</f>
@@ -3530,12 +3530,12 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие и виды социальных институтов")</f>
-        <v>Понятие и виды социальных институтов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисфункции социальных институтов")</f>
+        <v>Дисфункции социальных институтов</v>
       </c>
       <c r="B37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межличностные отношения")</f>
@@ -3606,12 +3606,12 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции социальных институтов")</f>
-        <v>Функции социальных институтов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формальные и неформальные социальные институты")</f>
+        <v>Формальные и неформальные социальные институты</v>
       </c>
       <c r="B38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межличностные конфликты")</f>
@@ -3681,14 +3681,8 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисфункции социальных институтов")</f>
-        <v>Дисфункции социальных институтов</v>
-      </c>
-      <c r="B39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы решения межличностных конфликтов")</f>
         <v>Способы решения межличностных конфликтов</v>
@@ -3757,14 +3751,8 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формальные и неформальные социальные институты")</f>
-        <v>Формальные и неформальные социальные институты</v>
-      </c>
-      <c r="B40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки творческой деятельности")</f>
         <v>Признаки творческой деятельности</v>
@@ -5650,12 +5638,12 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""Плавильный котел""")</f>
-        <v>"Плавильный котел"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мультикультурализм")</f>
+        <v>Мультикультурализм</v>
       </c>
       <c r="F77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),281.0)</f>
-        <v>281</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
+        <v>282</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -5684,12 +5672,12 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мультикультурализм")</f>
-        <v>Мультикультурализм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Национализм, шовинизм, сегрегация, геноцид")</f>
+        <v>Национализм, шовинизм, сегрегация, геноцид</v>
       </c>
       <c r="F78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),282.0)</f>
-        <v>282</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
+        <v>283</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -5718,12 +5706,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Национализм, шовинизм, сегрегация, геноцид")</f>
-        <v>Национализм, шовинизм, сегрегация, геноцид</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межнациональные конфликты")</f>
+        <v>Межнациональные конфликты</v>
       </c>
       <c r="F79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),283.0)</f>
-        <v>283</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
+        <v>284</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -5752,12 +5740,12 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Межнациональные конфликты")</f>
-        <v>Межнациональные конфликты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины межнациональных конфликтов")</f>
+        <v>Причины межнациональных конфликтов</v>
       </c>
       <c r="F80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),284.0)</f>
-        <v>284</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
+        <v>285</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -5786,12 +5774,12 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Причины межнациональных конфликтов")</f>
-        <v>Причины межнациональных конфликтов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные принципы национальной политики РФ")</f>
+        <v>Основные принципы национальной политики РФ</v>
       </c>
       <c r="F81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),285.0)</f>
-        <v>285</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -5820,12 +5808,12 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основные принципы национальной политики РФ")</f>
-        <v>Основные принципы национальной политики РФ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семья как малая соц группа и как соц институт")</f>
+        <v>Семья как малая соц группа и как соц институт</v>
       </c>
       <c r="F82" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
-        <v>286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),287.0)</f>
+        <v>287</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -5854,12 +5842,12 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Семья как малая соц группа и как соц институт")</f>
-        <v>Семья как малая соц группа и как соц институт</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции семьи")</f>
+        <v>Функции семьи</v>
       </c>
       <c r="F83" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),287.0)</f>
-        <v>287</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
+        <v>288</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -5888,12 +5876,12 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции семьи")</f>
-        <v>Функции семьи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы семьи (по составу, по распределению власти, по распределению домашних обязанностей и другие)")</f>
+        <v>Типы семьи (по составу, по распределению власти, по распределению домашних обязанностей и другие)</v>
       </c>
       <c r="F84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),288.0)</f>
-        <v>288</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -5922,12 +5910,12 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Типы семьи (по составу, по распределению власти, по распределению домашних обязанностей и другие)")</f>
-        <v>Типы семьи (по составу, по распределению власти, по распределению домашних обязанностей и другие)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие брака")</f>
+        <v>Понятие брака</v>
       </c>
       <c r="F85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
-        <v>289</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
+        <v>290</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -5956,12 +5944,12 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие брака")</f>
-        <v>Понятие брака</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гражданский, церковный, фактический брак")</f>
+        <v>Гражданский, церковный, фактический брак</v>
       </c>
       <c r="F86" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),290.0)</f>
-        <v>290</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),291.0)</f>
+        <v>291</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -5990,12 +5978,12 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гражданский, церковный, фактический брак")</f>
-        <v>Гражданский, церковный, фактический брак</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Современные проблемы семьи")</f>
+        <v>Современные проблемы семьи</v>
       </c>
       <c r="F87" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),291.0)</f>
-        <v>291</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -6024,12 +6012,12 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Современные проблемы семьи")</f>
-        <v>Современные проблемы семьи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальный статус и статусный набор")</f>
+        <v>Социальный статус и статусный набор</v>
       </c>
       <c r="F88" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
-        <v>292</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.0)</f>
+        <v>293</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -6058,12 +6046,12 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальный статус и статусный набор")</f>
-        <v>Социальный статус и статусный набор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Компоненты социального статуса")</f>
+        <v>Компоненты социального статуса</v>
       </c>
       <c r="F89" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),293.0)</f>
-        <v>293</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
+        <v>294</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -6092,12 +6080,12 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Компоненты социального статуса")</f>
-        <v>Компоненты социального статуса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды социальных статусов")</f>
+        <v>Виды социальных статусов</v>
       </c>
       <c r="F90" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),294.0)</f>
-        <v>294</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
+        <v>295</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -6126,12 +6114,12 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды социальных статусов")</f>
-        <v>Виды социальных статусов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Статусные несоответствия")</f>
+        <v>Статусные несоответствия</v>
       </c>
       <c r="F91" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),295.0)</f>
-        <v>295</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
+        <v>296</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -6160,12 +6148,12 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Статусные несоответствия")</f>
-        <v>Статусные несоответствия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальная роль и ролевой набор")</f>
+        <v>Социальная роль и ролевой набор</v>
       </c>
       <c r="F92" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),296.0)</f>
-        <v>296</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -6194,12 +6182,12 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальная роль и ролевой набор")</f>
-        <v>Социальная роль и ролевой набор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ролевое поведение")</f>
+        <v>Ролевое поведение</v>
       </c>
       <c r="F93" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
+        <v>298</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -6228,12 +6216,12 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ролевое поведение")</f>
-        <v>Ролевое поведение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ролевые конфликты")</f>
+        <v>Ролевые конфликты</v>
       </c>
       <c r="F94" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
-        <v>298</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
+        <v>299</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -6262,12 +6250,12 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ролевые конфликты")</f>
-        <v>Ролевые конфликты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношения между поколениями")</f>
+        <v>Отношения между поколениями</v>
       </c>
       <c r="F95" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),299.0)</f>
-        <v>299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1201.0)</f>
+        <v>1201</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -6296,12 +6284,12 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношения между поколениями")</f>
-        <v>Отношения между поколениями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Многообразие социальных ролей в подростковом возрасте")</f>
+        <v>Многообразие социальных ролей в подростковом возрасте</v>
       </c>
       <c r="F96" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1201.0)</f>
-        <v>1201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1202.0)</f>
+        <v>1202</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -6330,12 +6318,12 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Многообразие социальных ролей в подростковом возрасте")</f>
-        <v>Многообразие социальных ролей в подростковом возрасте</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальные ценности")</f>
+        <v>Социальные ценности</v>
       </c>
       <c r="F97" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1202.0)</f>
-        <v>1202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1203.0)</f>
+        <v>1203</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -6363,14 +6351,8 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Социальные ценности")</f>
-        <v>Социальные ценности</v>
-      </c>
-      <c r="F98" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1203.0)</f>
-        <v>1203</v>
-      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
